--- a/ESD-Week2 - Self Assessment.xlsx
+++ b/ESD-Week2 - Self Assessment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t xml:space="preserve">Student Name: </t>
   </si>
@@ -177,34 +177,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Key points I need to improve</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Any comments :</t>
-    </r>
-  </si>
-  <si>
     <t>I do not get upset when things change</t>
   </si>
   <si>
@@ -223,13 +195,7 @@
     <t xml:space="preserve">I am good in teamwork. </t>
   </si>
   <si>
-    <t>I can't manage my time as well.</t>
-  </si>
-  <si>
     <t>Ankita Balaso Patil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This session is really effective and encouragable for becoming better employee. </t>
   </si>
 </sst>
 </file>
@@ -435,6 +401,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,28 +425,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -838,7 +804,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:E43"/>
+      <selection activeCell="A48" sqref="A48:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -852,63 +818,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="19"/>
+      <c r="B2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="19"/>
+      <c r="B3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="25">
         <v>3432</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="17"/>
+      <c r="B5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="21">
         <f>AVERAGE(C7,C18,C24,C30,C36)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="20"/>
+      <c r="A7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="14">
         <f>SUM(D8:D17)/10</f>
         <v>3.2</v>
@@ -1099,10 +1065,10 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="14">
         <f>SUM(D19:D23)/5</f>
         <v>4.5999999999999996</v>
@@ -1222,10 +1188,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="14">
         <f>SUM(D25:D29)/5</f>
         <v>3.8</v>
@@ -1270,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>21</v>
@@ -1312,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>19</v>
@@ -1344,10 +1310,10 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="14">
         <f>SUM(D31:D35)/5</f>
         <v>4.2</v>
@@ -1448,10 +1414,10 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="14">
         <f>SUM(D37:D41)/5</f>
         <v>4.2</v>
@@ -1552,64 +1518,67 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="44" spans="1:7" ht="15.75">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:7" ht="15">
-      <c r="B45" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="24"/>
+      <c r="B45" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="1:7" ht="15">
-      <c r="B47" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="24"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75">
-      <c r="B48" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="24"/>
+      <c r="B47" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49" spans="2:3" ht="15">
-      <c r="B49" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="24"/>
-    </row>
-    <row r="50" spans="2:3" ht="15.75">
-      <c r="B50" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="24"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="2:3" ht="15">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="2:3" ht="24.75" customHeight="1">
-      <c r="B51" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="24"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B51:C51"/>
@@ -1620,17 +1589,6 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C17 C37:C41 C31:C35 C25:C29 C19:C23">
